--- a/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICI/TABLA_BIBLIOGRAFIA_ICI.xlsx
+++ b/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICI/TABLA_BIBLIOGRAFIA_ICI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>UA</t>
   </si>
@@ -151,6 +151,84 @@
   </si>
   <si>
     <t>Cózar, R., &amp; González Calero J. A. (2019). Tendencias y tecnologías emergentes en investigación e innovación educativa (1/a edición). Editorial Graó, Barcelona.</t>
+  </si>
+  <si>
+    <t>Diseño de Compiladores</t>
+  </si>
+  <si>
+    <t>Aho, A. V. , &amp; Lam, M. S., Sethi, R., &amp; Ullman, J. D. (2006). Compilers, Principles and Tools (2/a edición). Pearson.</t>
+  </si>
+  <si>
+    <t>Alfonseca, M., &amp; Echeandía, M . de la C., &amp; Ortega, A., &amp; Pulido, E. (2006). Compiladores e Interpretes (1/a edición). Pearson Prentice Hall.</t>
+  </si>
+  <si>
+    <t>García Saiz, T., &amp; Gaudioso Vázquez, E. (2017). Autómatas, Gramáticas y Lenguajes Formales (__ edición). Editorial SANZYTORRES, S. L. con Pinos Alta, 49 - 28029 Madrid.</t>
+  </si>
+  <si>
+    <t>Gaudioso Vázquez, E., &amp; García Saiz, T. (2017). Introducción a la Teoría de Autómatas, Gramáticas y Lenguajes  (1/a edición). Editorial Universitaria Ramón Areces.</t>
+  </si>
+  <si>
+    <t>Allen, I. H. (1990). Computer Design in C (2/a edición). Prentice Hall.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemone, K. (1998). Fundamentos de Compiladores: Cómo traducir al lenguaje de computadora (1/a edición). Editorial CECSA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tremblay, J. P., &amp; Sorenson, P. G. (2008). The Theory and Practice of Compiler Writing (__ edición). New Delhi BW Publications. </t>
+  </si>
+  <si>
+    <t>Ingeniería Económica</t>
+  </si>
+  <si>
+    <t>Alvarado, M.  (2013). Ingeniería económica nuevo enfoque (1/a reimpresión, México). Grupo Editorial Patria.</t>
+  </si>
+  <si>
+    <t>Díaz Mata, A. (2013). Matemáticas Financieras (5/a edición). Editorial McGraw Hill.</t>
+  </si>
+  <si>
+    <t>Matemáticas Computacionales</t>
+  </si>
+  <si>
+    <t>Grimaldi, R. P. (2003). Discrete and Combinatorial Mathematics An Applied Introduction (5/a edición). Pearson.</t>
+  </si>
+  <si>
+    <t>Abeli, P. (1996). Lenguaje Ensamblador y Programación para IBM PC y Compatibles (3/a edición). Pearson Prentice Hall.</t>
+  </si>
+  <si>
+    <t>Brey, B. B. (2006). Microprocesadores (7/a edición). Pearson Prentice Hall.</t>
+  </si>
+  <si>
+    <t>Charte Ojeda, F. (2009). Ensamblador (1/a edición). Ediciones Anaya Multimedia.</t>
+  </si>
+  <si>
+    <t>Irvine, K. R. (2008). Lenguaje Ensamblador para Computadoras basadas en Intel (5/a edición). Pearson Prentice Hall.</t>
+  </si>
+  <si>
+    <t>Murdocca, M. J., &amp; Heuring, V. P. (2002). Principios de Arquitectura de Computadoras (1/a edición). Pearson Prentice Hall.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parra Reynada L. (2012). Microprocesadores (1/a edición). Red Tercer Milenio. </t>
+  </si>
+  <si>
+    <t>Deitel, H. M., &amp; Deitel P. J. (2014). C++ Cómo Programar  (9/a edición). Pearson.</t>
+  </si>
+  <si>
+    <t>Joyanes Aguilar, L. (2008). Fundamentos de Programación. Algoritmos, Estructuras de datos y Objetos (4/a edición). McGraw Hill.</t>
+  </si>
+  <si>
+    <t>Pinales Delgado, F. J., &amp; Velázquez Amador, C. E. (2014). Problemario de Algoritmos Resueltos con Diagramas de Flujo y Pseudocodigo (). México, Universidad Autónoma de Aguascalientes.</t>
+  </si>
+  <si>
+    <t>Programación (Prof. Enrique Rivera Medina)</t>
+  </si>
+  <si>
+    <t>Programación (Prof. Pablo Montes Sierra)</t>
+  </si>
+  <si>
+    <t>Farrel, J. (2001). Introducción a la Programación (7/a edición). International Thomson Editores S. A. de C. V.</t>
+  </si>
+  <si>
+    <t>Juganaru Mathiu, M. (2014). Introducción a la Programación (). Editorial Patria.</t>
   </si>
 </sst>
 </file>
@@ -186,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -196,6 +274,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C35"/>
+  <dimension ref="B1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +780,135 @@
         <v>43</v>
       </c>
     </row>
+    <row r="36" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="E46:E51">
+    <sortCondition ref="E51"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B14:B17"/>

--- a/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICI/TABLA_BIBLIOGRAFIA_ICI.xlsx
+++ b/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICI/TABLA_BIBLIOGRAFIA_ICI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>UA</t>
   </si>
@@ -228,7 +228,100 @@
     <t>Farrel, J. (2001). Introducción a la Programación (7/a edición). International Thomson Editores S. A. de C. V.</t>
   </si>
   <si>
-    <t>Juganaru Mathiu, M. (2014). Introducción a la Programación (). Editorial Patria.</t>
+    <t>Ecuaciones Diferenciales</t>
+  </si>
+  <si>
+    <t>Bronson, R., &amp; Costa, G. B. (2014). Differential Equations (4/a edición). McGraw - Hill.</t>
+  </si>
+  <si>
+    <t>Espinosa Herrera, E. J., &amp; Canals Navarrete, I. Muñoz Maya, I, &amp; Pérez Flores, R., &amp; Prado Pérez, C. D., &amp; Dario Santiago, R., &amp; Ulín Jiménez, C. A. (2010). Ecuaciones Diferenciales Ordinarias. Introducción (1/a edición). Editorial Reverté.</t>
+  </si>
+  <si>
+    <t>Falleisen, M., &amp; Findler, R., &amp; Krishnamurthi, S. (2018). How to Design Programs: An Introduction to Programming and Computing (1/a edición). MIT Press.</t>
+  </si>
+  <si>
+    <t>Cairó Battistuti, O. (2014). Metodología de la Programación (3/a edición). Alfaomega.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kernigan, B, &amp; Ritchie, D. (1988). The C Programming Language (2/a edición). Pearson. </t>
+  </si>
+  <si>
+    <t>Juganaru Mathiu, M. (2014). Introducción a la Programación (1/a edición). Grupo Editorial Patria.</t>
+  </si>
+  <si>
+    <t>Programación (Prof. Cristal Karina Galindo Duran)</t>
+  </si>
+  <si>
+    <t>Programación (Prof. David García del Valle)</t>
+  </si>
+  <si>
+    <t>Programación (Prof. Edmanuel Rangel De La Cruz)</t>
+  </si>
+  <si>
+    <t>Joyanes Aguilar, L., &amp; Rodríguez Baena, L., &amp; Fernández Azuela, M. (2003). Fundamentos de Programación. Libro de Problemas (2/a edición). Mc Graw Hill.</t>
+  </si>
+  <si>
+    <t>Teoría de la Computación</t>
+  </si>
+  <si>
+    <t>Brookshear, J. G. (1993). Teoría de la Computación (1/a edición). Addison Wesley Iberoamericana.</t>
+  </si>
+  <si>
+    <t>Hopcroft, J.E., &amp; Matwani, R., &amp; Ullman, J. D. (2008). Teoría de Autómatas. Lenguajes y Computación. Pearson.</t>
+  </si>
+  <si>
+    <t>Tópicos Avanzados</t>
+  </si>
+  <si>
+    <t>Ponce Gallegos, J. C., &amp; Torres Soto, A., &amp; Quezada Aguilera F. S., &amp; Silva Sprock, A. Et Al. (2014). Inteligencia Artificial (1/a edición). Iniciativa Latinoamericana de Libros de Texto Abiertos (Proyecto LATIn - Libros de texto abiertos colaborativos). https://rephip.unr.edu.ar/xmlui/handle/2133/17686</t>
+  </si>
+  <si>
+    <t>Russell, S. J., Norvig, P., &amp; Davis, E. (2010). Artificial intelligence: a modern approach. (3/a edición). Upper Saddle River, NJ: Prentice Hall.</t>
+  </si>
+  <si>
+    <t>Mitchell, T. M. (1997). Machine Learning Textbook (1/a edición). Mc Graw Hill Education.</t>
+  </si>
+  <si>
+    <t>Sistemas Expertos</t>
+  </si>
+  <si>
+    <t>Pigford, D. V, &amp; Baur, G. (1990), Expert Systems for Business: Concepts and Applications (1/a edición).  Boyd and Fraser Publishing Co., Boston, Massachusetts.</t>
+  </si>
+  <si>
+    <t>Harmond, P., &amp; King, D. (1987). Expert Systems: Artificial Intelligence in Business (1/a edición). John Wiley and Sons, New York.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayes-Roth F. , &amp; Waterman, D., &amp; Lenat , D.  (1983). Building Expert Systems (1/a edición). Addison Wesley. Reading. MA. </t>
+  </si>
+  <si>
+    <t>Durkin, J. (1994). Expert Systems Design and Development (1/a edición). MacMillan Publishing Company.</t>
+  </si>
+  <si>
+    <t>Programación Orientada a Objetos</t>
+  </si>
+  <si>
+    <t>Joyanes Aguilar, L. (2011). Programación en Java 6 (1/a edición). Mc Graw Hill.</t>
+  </si>
+  <si>
+    <t>Ceballos Sierra, F (2011). Java 2 Curso de Programación (4/a edición). Alfaomega Ra-ma.</t>
+  </si>
+  <si>
+    <t>Horstmann, C. (2012). Core Java 2. Vol. I (1/a edición). Pearson EUA.</t>
+  </si>
+  <si>
+    <t>Horstmann, C. (2013). Core Java 2. Vol. II (1/a edición). Pearson EUA.</t>
+  </si>
+  <si>
+    <t>Laboratorio de Ingeniería de Redes</t>
+  </si>
+  <si>
+    <t>Stalling, W. (2018). Data and Computer Communications (10/a edición). Pearson.</t>
+  </si>
+  <si>
+    <t>Grewal, M. S., &amp; Andrews, A. P. (2014). Kalman Filtering: Theory and Practice Using MATLAB (4/a edición). Wiley-IEEE Press.</t>
+  </si>
+  <si>
+    <t>Kaustubh Inamdar (2018). Understanding Session Border Controllers: Comprehensive Guide to Deploying and Maintaining Cisco Unified Border Element Solutions. Cisco Press.</t>
   </si>
 </sst>
 </file>
@@ -264,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -277,6 +370,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C57"/>
+  <dimension ref="B1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +680,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -592,13 +688,13 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -650,7 +746,7 @@
       </c>
     </row>
     <row r="14" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -658,19 +754,19 @@
       </c>
     </row>
     <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -902,7 +998,174 @@
     </row>
     <row r="57" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICI/TABLA_BIBLIOGRAFIA_ICI.xlsx
+++ b/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICI/TABLA_BIBLIOGRAFIA_ICI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
   <si>
     <t>UA</t>
   </si>
@@ -322,6 +322,39 @@
   </si>
   <si>
     <t>Kaustubh Inamdar (2018). Understanding Session Border Controllers: Comprehensive Guide to Deploying and Maintaining Cisco Unified Border Element Solutions. Cisco Press.</t>
+  </si>
+  <si>
+    <t>Simulación de Sistemas</t>
+  </si>
+  <si>
+    <t>Coss Bu, R. (2016). Simulación un enfoque práctico (2/a edición). Limusa</t>
+  </si>
+  <si>
+    <t>García , F., &amp; Sierra, J., &amp; Guzmán, V. (2007). Simulación de sistemas para administración e ingeniería (). México Grupo Editorial Patria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeigler, B., &amp; Muzy, A., &amp; Kofman, E. (2018). Theory of Modeling and Simulation: Discrete Event &amp; Iterative System Computational Foundations (3/a edición). Academic Press </t>
+  </si>
+  <si>
+    <t>Auditoría y Consultoría Informática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David, Ch., &amp; Kegerreis M., &amp; Schiler, M. (2019).  IT Auditing: Using Controls to Protect Information Assets (3/a edición). Mc Graw Hill Education. </t>
+  </si>
+  <si>
+    <t>Weiss, M, &amp; Solomon, M. G. (2015). Auditing IT Infrastructures for Compliance (2/a edición). Jones &amp; Barlett Publishers.</t>
+  </si>
+  <si>
+    <t>Arquitectura deComputadoras I</t>
+  </si>
+  <si>
+    <t>McCalla, T. R. (1994). Lógica Digital y Diseño de Computadoras (). Noriega Editores.</t>
+  </si>
+  <si>
+    <t>Sudkamp, T. A. (1997). Languages and Machines (2/a edición). Addison-Wesley.</t>
+  </si>
+  <si>
+    <t>Teoría de la Computación (Prof. Emanuel Rangel De La Cruz)</t>
   </si>
 </sst>
 </file>
@@ -357,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -370,6 +403,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
@@ -654,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C85"/>
+  <dimension ref="B1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +716,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -688,13 +724,13 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -746,7 +782,7 @@
       </c>
     </row>
     <row r="14" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -754,19 +790,19 @@
       </c>
     </row>
     <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1166,6 +1202,73 @@
     <row r="85" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1177,6 +1280,6 @@
     <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICI/TABLA_BIBLIOGRAFIA_ICI.xlsx
+++ b/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICI/TABLA_BIBLIOGRAFIA_ICI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t>UA</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Roth, Ch. (2013). Fundamentals of Logical Design (7/a edición). Cengage Learning.</t>
   </si>
   <si>
-    <t>Inteligencia Artificial \ \ \ \ \ Docente: Fátima Margarita Lechuga Blanco</t>
-  </si>
-  <si>
     <t>Artículos varios de los siguientes journals: Expert System with Applications, Artificial Intelligence, IEEE Expert, Knowledge Acquisition.</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Tanenbaum, A. S. (2000). Organización de Computadoras: Un Enfoque Estructurado (4/a edición). Pearson Educación.</t>
   </si>
   <si>
-    <t>Inteligencia Artificial \ \ \ \ Docente: Diego Alfredo Padilla Pérez</t>
-  </si>
-  <si>
     <t>Kendall, K. E., &amp; Kendall, J. E. (2011). Análisis y Diseño de Sistemas (8/a edición). Pearson Educción.</t>
   </si>
   <si>
@@ -219,12 +213,6 @@
     <t>Pinales Delgado, F. J., &amp; Velázquez Amador, C. E. (2014). Problemario de Algoritmos Resueltos con Diagramas de Flujo y Pseudocodigo (). México, Universidad Autónoma de Aguascalientes.</t>
   </si>
   <si>
-    <t>Programación (Prof. Enrique Rivera Medina)</t>
-  </si>
-  <si>
-    <t>Programación (Prof. Pablo Montes Sierra)</t>
-  </si>
-  <si>
     <t>Farrel, J. (2001). Introducción a la Programación (7/a edición). International Thomson Editores S. A. de C. V.</t>
   </si>
   <si>
@@ -249,15 +237,6 @@
     <t>Juganaru Mathiu, M. (2014). Introducción a la Programación (1/a edición). Grupo Editorial Patria.</t>
   </si>
   <si>
-    <t>Programación (Prof. Cristal Karina Galindo Duran)</t>
-  </si>
-  <si>
-    <t>Programación (Prof. David García del Valle)</t>
-  </si>
-  <si>
-    <t>Programación (Prof. Edmanuel Rangel De La Cruz)</t>
-  </si>
-  <si>
     <t>Joyanes Aguilar, L., &amp; Rodríguez Baena, L., &amp; Fernández Azuela, M. (2003). Fundamentos de Programación. Libro de Problemas (2/a edición). Mc Graw Hill.</t>
   </si>
   <si>
@@ -355,6 +334,12 @@
   </si>
   <si>
     <t>Teoría de la Computación (Prof. Emanuel Rangel De La Cruz)</t>
+  </si>
+  <si>
+    <t>Inteligencia Artificial</t>
+  </si>
+  <si>
+    <t>Programación</t>
   </si>
 </sst>
 </file>
@@ -378,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -386,30 +371,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,592 +755,681 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+    <row r="20" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+    <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+    <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+    <row r="25" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1" t="s">
+    </row>
+    <row r="26" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+    <row r="29" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
+    <row r="32" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+    <row r="33" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="34" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="35" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
+    <row r="36" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
+    <row r="40" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
+    <row r="41" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
+    <row r="43" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="44" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="1" t="s">
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
+    <row r="48" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="1" t="s">
+    <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C48" s="1" t="s">
+    <row r="50" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
+    <row r="51" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
+    <row r="52" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
+    <row r="53" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="1" t="s">
+    <row r="54" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C53" s="1" t="s">
+    <row r="55" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="57" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
-        <v>75</v>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="1" t="s">
+    </row>
+    <row r="62" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="C59" s="1" t="s">
+    <row r="63" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
+    <row r="64" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C61" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C65" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
+    </row>
+    <row r="73" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C68" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C69" s="1" t="s">
+    </row>
+    <row r="74" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="3" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C71" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C73" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C74" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="1" t="s">
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C76" s="1" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C77" s="1" t="s">
+    <row r="83" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C78" s="1" t="s">
+      <c r="C83" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
+    <row r="84" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+      <c r="C84" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="1" t="s">
+    </row>
+    <row r="85" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+      <c r="C85" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C80" s="1" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="1" t="s">
+      <c r="C86" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
+    <row r="87" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+      <c r="C87" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="88" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+      <c r="C88" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="1" t="s">
+    </row>
+    <row r="89" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C84" s="1" t="s">
+      <c r="C89" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C85" s="1" t="s">
+    <row r="90" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+      <c r="C90" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="91" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C91" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C87" s="1" t="s">
+    <row r="92" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+      <c r="C92" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+      <c r="C93" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C88" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>105</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C90" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>108</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C92" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C93" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B94" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
     <row r="95" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C95" s="1" t="s">
-        <v>81</v>
+      <c r="B95" s="2"/>
+      <c r="C95" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C96" s="1" t="s">
-        <v>82</v>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="E46:E51">
     <sortCondition ref="E51"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="28">
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
